--- a/excel/feature_info.xlsx
+++ b/excel/feature_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai Zhuo\Desktop\Python\EC4304\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Python\ec4304\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF48D0F-C195-45DD-B08B-0D8F446D5BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239841E2-21D3-4655-8551-57067A94491A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3390" windowWidth="21690" windowHeight="11385" xr2:uid="{2F1A44E5-39EA-474B-8CA0-D2D772874EEF}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{2F1A44E5-39EA-474B-8CA0-D2D772874EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="289">
   <si>
     <t>Group</t>
   </si>
@@ -868,6 +868,30 @@
   </si>
   <si>
     <t>CUSR0000SA0L2</t>
+  </si>
+  <si>
+    <t>OILPRICEx1</t>
+  </si>
+  <si>
+    <t>OILPRICEx2</t>
+  </si>
+  <si>
+    <t>OILPRICEx3</t>
+  </si>
+  <si>
+    <t>OILPRICEx4</t>
+  </si>
+  <si>
+    <t>Crude Oil, spliced WTI and Cushing 1</t>
+  </si>
+  <si>
+    <t>Crude Oil, spliced WTI and Cushing 2</t>
+  </si>
+  <si>
+    <t>Crude Oil, spliced WTI and Cushing 3</t>
+  </si>
+  <si>
+    <t>Crude Oil, spliced WTI and Cushing 4</t>
   </si>
 </sst>
 </file>
@@ -1226,18 +1250,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C0955E-17C0-4673-A40D-1D93889F3A39}">
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1272,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1262,7 +1286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1276,7 +1300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1290,7 +1314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1304,7 +1328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1318,7 +1342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1332,7 +1356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1346,7 +1370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1360,7 +1384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1374,7 +1398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1388,7 +1412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1402,7 +1426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1416,7 +1440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1430,7 +1454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1444,7 +1468,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1458,7 +1482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1472,7 +1496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1486,7 +1510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1500,7 +1524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1514,7 +1538,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1528,7 +1552,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1542,7 +1566,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1556,7 +1580,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1570,7 +1594,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1584,7 +1608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1598,7 +1622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1612,7 +1636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1626,7 +1650,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1640,7 +1664,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1654,7 +1678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1668,7 +1692,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1682,7 +1706,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1696,7 +1720,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1710,7 +1734,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1724,7 +1748,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1738,7 +1762,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1752,7 +1776,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1766,7 +1790,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1780,7 +1804,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1794,7 +1818,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1808,7 +1832,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1822,7 +1846,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1836,7 +1860,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1850,7 +1874,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1864,7 +1888,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1878,7 +1902,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1892,7 +1916,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1906,7 +1930,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1920,7 +1944,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1934,7 +1958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1948,7 +1972,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1962,7 +1986,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1976,7 +2000,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1990,7 +2014,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2004,7 +2028,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2018,7 +2042,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2032,7 +2056,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2046,7 +2070,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2060,7 +2084,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2074,7 +2098,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2088,7 +2112,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2102,7 +2126,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2116,7 +2140,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2130,7 +2154,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2144,7 +2168,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2158,7 +2182,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2172,7 +2196,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2186,7 +2210,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2200,7 +2224,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2214,7 +2238,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2228,7 +2252,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2242,7 +2266,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2256,7 +2280,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2270,7 +2294,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2284,7 +2308,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2298,7 +2322,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2312,7 +2336,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2326,7 +2350,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2340,7 +2364,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2354,7 +2378,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2368,7 +2392,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2382,7 +2406,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2396,7 +2420,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2410,7 +2434,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2424,7 +2448,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2438,7 +2462,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2452,7 +2476,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2466,7 +2490,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2480,7 +2504,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2494,7 +2518,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2508,7 +2532,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2522,7 +2546,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2536,7 +2560,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2550,7 +2574,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2564,7 +2588,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2578,7 +2602,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2592,7 +2616,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2606,7 +2630,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2620,7 +2644,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2634,7 +2658,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2648,7 +2672,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2662,7 +2686,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2676,7 +2700,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2690,7 +2714,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2704,7 +2728,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2718,7 +2742,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2732,7 +2756,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2746,7 +2770,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2760,7 +2784,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2774,7 +2798,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2788,7 +2812,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2802,7 +2826,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2816,7 +2840,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2830,7 +2854,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2844,7 +2868,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2858,7 +2882,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2872,7 +2896,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2886,7 +2910,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2900,7 +2924,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2914,7 +2938,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2928,7 +2952,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2942,7 +2966,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2956,7 +2980,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2970,7 +2994,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2984,7 +3008,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2998,7 +3022,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3012,7 +3036,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3026,7 +3050,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3040,7 +3064,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3054,7 +3078,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3068,7 +3092,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3082,7 +3106,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3096,7 +3120,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3110,7 +3134,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3124,7 +3148,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3136,6 +3160,62 @@
       </c>
       <c r="D136" t="s">
         <v>273</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>262</v>
+      </c>
+      <c r="C137" t="s">
+        <v>281</v>
+      </c>
+      <c r="D137" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>262</v>
+      </c>
+      <c r="C138" t="s">
+        <v>282</v>
+      </c>
+      <c r="D138" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>262</v>
+      </c>
+      <c r="C139" t="s">
+        <v>283</v>
+      </c>
+      <c r="D139" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>262</v>
+      </c>
+      <c r="C140" t="s">
+        <v>284</v>
+      </c>
+      <c r="D140" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/excel/feature_info.xlsx
+++ b/excel/feature_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Python\ec4304\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai Zhuo\Desktop\Python\EC4304\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239841E2-21D3-4655-8551-57067A94491A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DABAE28-028D-4A19-9913-1A85CCA91810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{2F1A44E5-39EA-474B-8CA0-D2D772874EEF}"/>
+    <workbookView xWindow="3630" yWindow="3630" windowWidth="21690" windowHeight="11385" xr2:uid="{2F1A44E5-39EA-474B-8CA0-D2D772874EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="293">
   <si>
     <t>Group</t>
   </si>
@@ -892,6 +892,18 @@
   </si>
   <si>
     <t>Crude Oil, spliced WTI and Cushing 4</t>
+  </si>
+  <si>
+    <t>AAAFFM1</t>
+  </si>
+  <si>
+    <t>AAAFFM2</t>
+  </si>
+  <si>
+    <t>AAAFFM3</t>
+  </si>
+  <si>
+    <t>AAAFFM4</t>
   </si>
 </sst>
 </file>
@@ -1250,18 +1262,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C0955E-17C0-4673-A40D-1D93889F3A39}">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="49.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1284,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1286,7 +1298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1300,7 +1312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1314,7 +1326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1328,7 +1340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1342,7 +1354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1356,7 +1368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1370,7 +1382,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1384,7 +1396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1398,7 +1410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1412,7 +1424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1426,7 +1438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1440,7 +1452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1454,7 +1466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1468,7 +1480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1482,7 +1494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1496,7 +1508,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1510,7 +1522,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1524,7 +1536,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1538,7 +1550,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1552,7 +1564,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1566,7 +1578,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1594,7 +1606,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1608,7 +1620,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1622,7 +1634,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1636,7 +1648,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1650,7 +1662,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1664,7 +1676,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1678,7 +1690,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1692,7 +1704,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1706,7 +1718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1720,7 +1732,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1734,7 +1746,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1748,7 +1760,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1762,7 +1774,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1776,7 +1788,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1790,7 +1802,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1804,7 +1816,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1818,7 +1830,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1832,7 +1844,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1846,7 +1858,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1860,7 +1872,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1874,7 +1886,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1888,7 +1900,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1902,7 +1914,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1916,7 +1928,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1930,7 +1942,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1944,7 +1956,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1958,7 +1970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1972,7 +1984,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1986,7 +1998,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2000,7 +2012,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2014,7 +2026,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2028,7 +2040,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2042,7 +2054,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2056,7 +2068,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2070,7 +2082,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2084,7 +2096,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2098,7 +2110,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2112,7 +2124,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2126,7 +2138,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2140,7 +2152,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2154,7 +2166,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2168,7 +2180,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2182,7 +2194,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2196,7 +2208,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2210,7 +2222,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2224,7 +2236,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2238,7 +2250,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2252,7 +2264,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2266,7 +2278,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2280,7 +2292,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2294,7 +2306,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2308,7 +2320,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2322,7 +2334,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2336,7 +2348,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2350,7 +2362,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2364,7 +2376,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2378,7 +2390,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2392,7 +2404,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2406,7 +2418,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2420,7 +2432,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2434,7 +2446,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2448,7 +2460,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2462,7 +2474,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2476,7 +2488,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2490,7 +2502,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2504,7 +2516,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2518,7 +2530,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2532,7 +2544,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2546,7 +2558,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2560,7 +2572,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2574,7 +2586,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2588,7 +2600,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2602,7 +2614,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2616,7 +2628,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2630,7 +2642,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2644,7 +2656,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2658,7 +2670,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2672,7 +2684,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2686,7 +2698,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2700,7 +2712,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2714,7 +2726,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2728,7 +2740,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2742,7 +2754,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2756,7 +2768,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2770,7 +2782,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2784,7 +2796,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2798,7 +2810,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2812,7 +2824,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2826,7 +2838,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2840,7 +2852,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2854,7 +2866,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2868,7 +2880,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2882,7 +2894,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2896,7 +2908,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2910,7 +2922,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2924,7 +2936,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2938,7 +2950,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2952,7 +2964,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2966,7 +2978,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2980,7 +2992,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2994,7 +3006,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3008,7 +3020,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3022,7 +3034,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3036,7 +3048,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3050,7 +3062,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3064,7 +3076,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3078,7 +3090,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3092,7 +3104,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3106,7 +3118,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3120,7 +3132,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3134,7 +3146,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3148,7 +3160,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3162,7 +3174,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3176,7 +3188,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3190,7 +3202,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3204,7 +3216,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3216,6 +3228,62 @@
       </c>
       <c r="D140" t="s">
         <v>288</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>181</v>
+      </c>
+      <c r="C141" t="s">
+        <v>289</v>
+      </c>
+      <c r="D141" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>181</v>
+      </c>
+      <c r="C142" t="s">
+        <v>290</v>
+      </c>
+      <c r="D142" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>181</v>
+      </c>
+      <c r="C143" t="s">
+        <v>291</v>
+      </c>
+      <c r="D143" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>181</v>
+      </c>
+      <c r="C144" t="s">
+        <v>292</v>
+      </c>
+      <c r="D144" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
